--- a/notebooks/SETD2/input/RabinSupplementaryTable1-SETD2.xlsx
+++ b/notebooks/SETD2/input/RabinSupplementaryTable1-SETD2.xlsx
@@ -2028,7 +2028,7 @@
     <t xml:space="preserve">Developmental delay (total IQ 67, verbal IQ 76, performance IQ 70); shy and has problems to adapt to new situations (anxious); especially executive functions and fine motor skills are impaired; slow processing speed</t>
   </si>
   <si>
-    <t xml:space="preserve">Walking independently </t>
+    <t xml:space="preserve">Walking independently</t>
   </si>
   <si>
     <t xml:space="preserve">No</t>
@@ -2943,14 +2943,14 @@
   <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.86"/>
@@ -4810,7 +4810,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -4833,7 +4833,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
